--- a/View_My_Courses.xlsx
+++ b/View_My_Courses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandermartinez/Desktop/ICS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandermartinez/Desktop/UI/XLSX_to_ICS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA702D-4548-D34D-8285-0A71AEAA4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A195B9D8-75E5-6943-BEFE-CBBBAB3BC6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
